--- a/scripts Stata/Atual/Diff Media/resultados Anova.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados Anova.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC6110-B39C-475D-BD45-F12C2F035CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6D30B-0E59-4908-A716-4BAC029E9335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="945" windowWidth="18870" windowHeight="13005" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LegNE" sheetId="3" r:id="rId1"/>
-    <sheet name="CAPIT" sheetId="8" r:id="rId2"/>
-    <sheet name="EXT" sheetId="10" r:id="rId3"/>
+    <sheet name="CAPIT" sheetId="8" r:id="rId1"/>
+    <sheet name="EXT" sheetId="10" r:id="rId2"/>
+    <sheet name="Anova sem transformacao" sheetId="3" r:id="rId3"/>
+    <sheet name="COMPLEX" sheetId="13" r:id="rId4"/>
+    <sheet name="Anova com transformacao" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>p-value</t>
   </si>
@@ -213,6 +215,24 @@
   </si>
   <si>
     <t>p-valor</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Soma dos quadrados</t>
+  </si>
+  <si>
+    <t>Grau de liberdade</t>
+  </si>
+  <si>
+    <t>Quadro Médio</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Sig</t>
   </si>
 </sst>
 </file>
@@ -225,7 +245,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +282,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -325,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,19 +377,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +414,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,6 +473,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E71473-13C9-4B26-A0FA-1556F266EBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="0"/>
+          <a:ext cx="5952381" cy="2485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,11 +820,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE000EC-D3D9-4E2D-9C2D-21E8C6840E45}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B5:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.5806</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.5196000000000001</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.8921</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-0.61629999999999996</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1.7592000000000001</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.1699</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.75270000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680932D-33E4-4974-8B0C-C43E49D26396}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-1.4220999999999999</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.1128</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.92120000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2.5196000000000001</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3.1945999999999999</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1.7284999999999999</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.9402999999999999</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3.1145</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.52949999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B9:I20"/>
+  <dimension ref="B8:I20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,19 +1280,27 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="20"/>
+      <c r="E9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -889,7 +1452,7 @@
       <c r="E17" s="3">
         <v>2016</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="23">
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="H17" s="3">
@@ -909,7 +1472,7 @@
       <c r="E18" s="5">
         <v>2017</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="24">
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="H18" s="5">
@@ -926,447 +1489,529 @@
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE000EC-D3D9-4E2D-9C2D-21E8C6840E45}">
-  <dimension ref="D5:I15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628740C-210E-42F7-9156-00792E223B7C}">
+  <dimension ref="C7:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="14">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
         <v>2010</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.60660000000000003</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0.5806</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="14">
+      <c r="D10" s="4">
+        <v>0.5202</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
         <v>2011</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0.98709999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
+      <c r="D11" s="4">
+        <v>0.99968000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
         <v>2012</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2.5196000000000001</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.42509999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
+      <c r="D12" s="4">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
         <v>2013</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.18559999999999999</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.8921</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="22">
+      <c r="D13" s="4">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
         <v>2014</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-0.61629999999999996</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
+      <c r="D14" s="4">
+        <v>0.86809999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>2015</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.19120000000000001</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="14">
+      <c r="D15" s="4">
+        <v>0.7923</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
         <v>2016</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.7592000000000001</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.1699</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="18">
+      <c r="D16" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
         <v>2017</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.75270000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="16"/>
+      <c r="D17" s="6">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="I17" s="29">
+        <v>2010</v>
+      </c>
+      <c r="J17" s="30">
+        <v>453.89</v>
+      </c>
+      <c r="K17" s="29">
+        <v>39</v>
+      </c>
+      <c r="L17" s="30">
+        <v>11.8568</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0.86</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0.5202</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="7">
+        <v>2011</v>
+      </c>
+      <c r="J18" s="30">
+        <v>486.8</v>
+      </c>
+      <c r="K18" s="29">
+        <v>39</v>
+      </c>
+      <c r="L18" s="30">
+        <v>12.482100000000001</v>
+      </c>
+      <c r="M18" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J19" s="30">
+        <v>611.05999999999995</v>
+      </c>
+      <c r="K19" s="29">
+        <v>39</v>
+      </c>
+      <c r="L19" s="30">
+        <v>15.668200000000001</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J20" s="30">
+        <v>679.45</v>
+      </c>
+      <c r="K20" s="29">
+        <v>39</v>
+      </c>
+      <c r="L20" s="30">
+        <v>18.038799999999998</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J21" s="30">
+        <v>692.49</v>
+      </c>
+      <c r="K21" s="29">
+        <v>39</v>
+      </c>
+      <c r="L21" s="30">
+        <v>17.7562</v>
+      </c>
+      <c r="M21" s="29">
+        <v>0.37</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0.86809999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J22" s="30">
+        <v>656.26</v>
+      </c>
+      <c r="K22" s="29">
+        <v>39</v>
+      </c>
+      <c r="L22" s="30">
+        <v>16.827200000000001</v>
+      </c>
+      <c r="M22" s="29">
+        <v>0.47</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0.7923</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I23" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J23" s="30">
+        <v>631.64</v>
+      </c>
+      <c r="K23" s="29">
+        <v>39</v>
+      </c>
+      <c r="L23" s="30">
+        <v>16.196000000000002</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0.82</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J24" s="5">
+        <v>495.42</v>
+      </c>
+      <c r="K24" s="5">
+        <v>39</v>
+      </c>
+      <c r="L24" s="33">
+        <v>12.703099999999999</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0.34960000000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D5:I5"/>
+  <mergeCells count="2">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680932D-33E4-4974-8B0C-C43E49D26396}">
-  <dimension ref="D7:I16"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C938D8B1-51B8-4EB7-88E9-AE0A4C18705B}">
+  <dimension ref="B8:I19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD15"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>2010</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-1.4220999999999999</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
+      <c r="C10" s="4">
+        <v>0.5202</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2010</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2010</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.33989999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>2011</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.1128</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.92120000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
+      <c r="C11" s="4">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2011</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>2012</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="15">
-        <v>2.5196000000000001</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="17">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
+      <c r="C12" s="4">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2012</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2012</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.30969999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>2013</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3.1945999999999999</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1.55E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="22">
+      <c r="C13" s="4">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2013</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>2014</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.7284999999999999</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
+      <c r="C14" s="4">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2014</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.91069999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>2015</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1.9402999999999999</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0.1371</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="14">
+      <c r="C15" s="4">
+        <v>0.7923</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.68459999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>2016</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="15">
-        <v>3.1145</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="18">
+      <c r="C16" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F16" s="27">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2016</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.33439999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>2017</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0.72160000000000002</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0.52949999999999997</v>
-      </c>
+      <c r="C17" s="6">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="28">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.47210000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:I7"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/scripts Stata/Atual/Diff Media/resultados Anova.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados Anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6D30B-0E59-4908-A716-4BAC029E9335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA40E0-6747-41DF-9D3B-9B5FC5DC0072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="945" windowWidth="18870" windowHeight="13005" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPIT" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>p-value</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Sig</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -416,46 +419,46 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,15 +483,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>70403</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>456456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152089</xdr:rowOff>
+      <xdr:colOff>86885</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,8 +514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="0"/>
-          <a:ext cx="5952381" cy="2485714"/>
+          <a:off x="4766642" y="521805"/>
+          <a:ext cx="5598960" cy="2335695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,218 +827,274 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B5:G15"/>
+  <dimension ref="B5:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>2010</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="10">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="G7" s="11">
         <v>0.60660000000000003</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13">
+      <c r="I7" s="13">
         <v>0.5806</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>2011</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="10">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
         <v>-1.84E-2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13">
+      <c r="I8" s="13">
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>2012</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11">
+      <c r="G9" s="11">
         <v>2.5196000000000001</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13">
+      <c r="I9" s="13">
         <v>0.42509999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2013</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="11">
+      <c r="G10" s="11">
         <v>0.18559999999999999</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="13">
+      <c r="I10" s="13">
         <v>0.8921</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>2014</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="18">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="11">
+      <c r="G11" s="11">
         <v>-0.61629999999999996</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="18">
+      <c r="I11" s="18">
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>2015</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="10">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="11">
+      <c r="G12" s="11">
         <v>0.19120000000000001</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="13">
+      <c r="I12" s="13">
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>2016</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11">
+      <c r="G13" s="11">
         <v>1.7592000000000001</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="13">
+      <c r="I13" s="13">
         <v>0.1699</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2017</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="15">
+      <c r="G14" s="15">
         <v>0.36180000000000001</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="17">
+      <c r="I14" s="17">
         <v>0.75270000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="12"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1047,216 +1106,272 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2010</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11">
+      <c r="G4" s="11">
         <v>-1.4220999999999999</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I4" s="13">
         <v>0.191</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>2011</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="10">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="11">
+      <c r="G5" s="11">
         <v>0.1128</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="13">
         <v>0.92120000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>2012</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="10">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11">
+      <c r="G6" s="11">
         <v>2.5196000000000001</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13">
+      <c r="I6" s="13">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>2013</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="10">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="11">
+      <c r="G7" s="11">
         <v>3.1945999999999999</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="13">
+      <c r="I7" s="13">
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>2014</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="18">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="11">
+      <c r="G8" s="11">
         <v>1.7284999999999999</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="18">
+      <c r="I8" s="18">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>2015</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="10">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11">
+      <c r="G9" s="11">
         <v>1.9402999999999999</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="13">
+      <c r="I9" s="13">
         <v>0.1371</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2016</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11">
+      <c r="G10" s="11">
         <v>3.1145</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="13">
+      <c r="I10" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2017</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="14">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="19">
+      <c r="G11" s="19">
         <v>0.72160000000000002</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="17">
+      <c r="I11" s="17">
         <v>0.52949999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1268,7 +1383,7 @@
   <dimension ref="B8:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,26 +1396,26 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="31"/>
+      <c r="E9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="31"/>
+      <c r="H9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1452,7 +1567,7 @@
       <c r="E17" s="3">
         <v>2016</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="H17" s="3">
@@ -1472,7 +1587,7 @@
       <c r="E18" s="5">
         <v>2017</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="H18" s="5">
@@ -1505,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628740C-210E-42F7-9156-00792E223B7C}">
   <dimension ref="C7:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,16 +1636,16 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
@@ -1621,22 +1736,22 @@
       <c r="D17" s="6">
         <v>0.34960000000000002</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="24">
         <v>2010</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="25">
         <v>453.89</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="24">
         <v>39</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="25">
         <v>11.8568</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="24">
         <v>0.86</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="26">
         <v>0.5202</v>
       </c>
     </row>
@@ -1644,19 +1759,19 @@
       <c r="I18" s="7">
         <v>2011</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="25">
         <v>486.8</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="24">
         <v>39</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="25">
         <v>12.482100000000001</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="24">
         <v>0.09</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="26">
         <v>0.99680000000000002</v>
       </c>
     </row>
@@ -1664,19 +1779,19 @@
       <c r="I19" s="7">
         <v>2012</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="25">
         <v>611.05999999999995</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="24">
         <v>39</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="25">
         <v>15.668200000000001</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="24">
         <v>0.03</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="26">
         <v>0.999</v>
       </c>
     </row>
@@ -1684,19 +1799,19 @@
       <c r="I20" s="7">
         <v>2013</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="25">
         <v>679.45</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="24">
         <v>39</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="25">
         <v>18.038799999999998</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="24">
         <v>0.19</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="26">
         <v>0.97609999999999997</v>
       </c>
     </row>
@@ -1704,19 +1819,19 @@
       <c r="I21" s="7">
         <v>2014</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="25">
         <v>692.49</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="24">
         <v>39</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="25">
         <v>17.7562</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="24">
         <v>0.37</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="26">
         <v>0.86809999999999998</v>
       </c>
     </row>
@@ -1724,19 +1839,19 @@
       <c r="I22" s="7">
         <v>2015</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="25">
         <v>656.26</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="24">
         <v>39</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="25">
         <v>16.827200000000001</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="24">
         <v>0.47</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="26">
         <v>0.7923</v>
       </c>
     </row>
@@ -1744,19 +1859,19 @@
       <c r="I23" s="7">
         <v>2016</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="25">
         <v>631.64</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="24">
         <v>39</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="25">
         <v>16.196000000000002</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="24">
         <v>0.82</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="26">
         <v>0.54700000000000004</v>
       </c>
     </row>
@@ -1770,13 +1885,13 @@
       <c r="K24" s="5">
         <v>39</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="28">
         <v>12.703099999999999</v>
       </c>
       <c r="M24" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="27">
         <v>0.34960000000000002</v>
       </c>
     </row>
@@ -1808,18 +1923,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="31"/>
+      <c r="E8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1971,7 +2086,7 @@
       <c r="E16" s="7">
         <v>2016</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="H16" s="7">
@@ -1991,7 +2106,7 @@
       <c r="E17" s="5">
         <v>2017</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="23">
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="H17" s="5">
